--- a/back/uploads/re.dakuten.xlsx
+++ b/back/uploads/re.dakuten.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,806 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ダイキン ルームエアコン 冷暖除湿 Eシリーズ</t>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ヘッダー</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ダイキン</t>
         </is>
       </c>
     </row>
